--- a/Messungen/Zusammenfassung y-Bewegung.xlsx
+++ b/Messungen/Zusammenfassung y-Bewegung.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="425" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="425"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -35,30 +34,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,7 +51,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -78,45 +59,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -175,15 +128,32 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -193,9 +163,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -205,7 +172,7 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ee4000"/>
+                <a:srgbClr val="EE4000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -219,10 +186,12 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -318,25 +287,25 @@
                   <c:v>1082.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1108.6</c:v>
+                  <c:v>1108.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1117.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1129.4</c:v>
+                  <c:v>1129.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1148.1</c:v>
+                  <c:v>1148.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1170.1</c:v>
+                  <c:v>1170.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1168.9</c:v>
+                  <c:v>1168.9000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1175.3</c:v>
@@ -345,10 +314,10 @@
                   <c:v>1188.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1190.9</c:v>
+                  <c:v>1190.9000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1197.1</c:v>
+                  <c:v>1197.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1193.5</c:v>
@@ -366,25 +335,25 @@
                   <c:v>1178.7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1171.1</c:v>
+                  <c:v>1171.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1144</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1168.4</c:v>
+                  <c:v>1168.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1143.9</c:v>
+                  <c:v>1143.9000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1131.7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1095.6</c:v>
+                  <c:v>1095.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1095.4</c:v>
+                  <c:v>1095.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1081.3</c:v>
@@ -394,31 +363,41 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="74037710"/>
-        <c:axId val="80731606"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="608448448"/>
+        <c:axId val="608449024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74037710"/>
+        <c:axId val="608448448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="80731606"/>
+        <c:crossAx val="608449024"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80731606"/>
+        <c:axId val="608449024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,35 +407,38 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74037710"/>
+        <c:crossAx val="608448448"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -466,22 +448,33 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -491,9 +484,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -503,7 +493,7 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ee4000"/>
+                <a:srgbClr val="EE4000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -517,10 +507,12 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -613,7 +605,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>146.2</c:v>
+                  <c:v>146.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>151.16</c:v>
@@ -625,7 +617,7 @@
                   <c:v>155.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>158.86</c:v>
+                  <c:v>158.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>162.5</c:v>
@@ -673,10 +665,10 @@
                   <c:v>167.09</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>159.23</c:v>
+                  <c:v>159.22999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>156.05</c:v>
+                  <c:v>156.05000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>148.12</c:v>
@@ -692,31 +684,41 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="15461594"/>
-        <c:axId val="28004876"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="643001152"/>
+        <c:axId val="643001728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="15461594"/>
+        <c:axId val="643001152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="28004876"/>
+        <c:crossAx val="643001728"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="28004876"/>
+        <c:axId val="643001728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,35 +728,38 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="15461594"/>
+        <c:crossAx val="643001152"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -764,22 +769,33 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -789,9 +805,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -801,7 +814,7 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ee4000"/>
+                <a:srgbClr val="EE4000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -814,10 +827,12 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -913,25 +928,25 @@
                   <c:v>1082.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1108.6</c:v>
+                  <c:v>1108.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1117.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1129.4</c:v>
+                  <c:v>1129.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1148.1</c:v>
+                  <c:v>1148.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1170.1</c:v>
+                  <c:v>1170.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1168.9</c:v>
+                  <c:v>1168.9000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1175.3</c:v>
@@ -940,10 +955,10 @@
                   <c:v>1188.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1190.9</c:v>
+                  <c:v>1190.9000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1197.1</c:v>
+                  <c:v>1197.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1193.5</c:v>
@@ -961,25 +976,25 @@
                   <c:v>1178.7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1171.1</c:v>
+                  <c:v>1171.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1144</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1168.4</c:v>
+                  <c:v>1168.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1143.9</c:v>
+                  <c:v>1143.9000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1131.7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1095.6</c:v>
+                  <c:v>1095.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1095.4</c:v>
+                  <c:v>1095.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1081.3</c:v>
@@ -989,31 +1004,41 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="43082610"/>
-        <c:axId val="67252238"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="643004032"/>
+        <c:axId val="643004608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43082610"/>
+        <c:axId val="643004032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67252238"/>
+        <c:crossAx val="643004608"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67252238"/>
+        <c:axId val="643004608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,35 +1048,38 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="43082610"/>
+        <c:crossAx val="643004032"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1061,20 +1089,639 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22047343923530949"/>
+                  <c:y val="-0.29045293135149552"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>690</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1082.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1108.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1117.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1129.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1148.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1170.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1168.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1175.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1188.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1190.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1197.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1193.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1191.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1196.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1187.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1178.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1171.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1168.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1143.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1131.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1095.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1095.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1081.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="650348800"/>
+        <c:axId val="650348224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="650348800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>y-Koordinate in Millimeter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="650348224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="650348224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Steigung in Millimeter pro Sekunde</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="650348800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21676224846894138"/>
+                  <c:y val="0.16824475065616798"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>690</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>146.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.86000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>167.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>168.03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175.56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>176.79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>178.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>176.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>176.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>177.13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>174.17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.77</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>167.78</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>162.66</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>167.09</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>156.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>148.12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>149.15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>145.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="650353408"/>
+        <c:axId val="650351680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="650353408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>y-Koordinate in Millimeter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="650351680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="650351680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>y-Achsenabschnitt in Millimeter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="650353408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1088,14 +1735,14 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5137560" y="975240"/>
-        <a:ext cx="5760000" cy="3241800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1118,14 +1765,14 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5217840" y="4293360"/>
-        <a:ext cx="5760000" cy="3241440"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1138,24 +1785,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>432510</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152775</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="4523040"/>
-        <a:ext cx="5760000" cy="3241440"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1168,29 +1815,29 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>390960</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:colOff>238560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>665925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 1" descr=""/>
+        <xdr:cNvPr id="5" name="Image 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6080400" y="190800"/>
-          <a:ext cx="3719880" cy="376200"/>
+          <a:off x="6086910" y="418965"/>
+          <a:ext cx="3513465" cy="374970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1202,434 +1849,776 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+  <a:themeElements>
+    <a:clrScheme name="Larissa">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Larissa">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Larissa">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <f aca="false">ABS(345-B4)</f>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" ref="A4:A28" si="0">ABS(345-B4)</f>
         <v>345</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>1082.3</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>146.2</v>
+      <c r="D4">
+        <v>146.19999999999999</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <f aca="false">ABS(345-B5)</f>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>30</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1108.6</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5">
+        <v>1108.5999999999999</v>
+      </c>
+      <c r="D5">
         <v>151.16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <f aca="false">ABS(345-B6)</f>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>60</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>1117.2</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>152.69</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <f aca="false">ABS(345-B7)</f>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>90</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1129.4</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7">
+        <v>1129.4000000000001</v>
+      </c>
+      <c r="D7">
         <v>155.59</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <f aca="false">ABS(345-B8)</f>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>120</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>1136</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>158.86</v>
+      <c r="D8">
+        <v>158.86000000000001</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <f aca="false">ABS(345-B9)</f>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>150</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>1148.1</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="C9">
+        <v>1148.0999999999999</v>
+      </c>
+      <c r="D9">
         <v>162.5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <f aca="false">ABS(345-B10)</f>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>180</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>1170.1</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="C10">
+        <v>1170.0999999999999</v>
+      </c>
+      <c r="D10">
         <v>167.94</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <f aca="false">ABS(345-B11)</f>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>210</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>1168.9</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="C11">
+        <v>1168.9000000000001</v>
+      </c>
+      <c r="D11">
         <v>168.03</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <f aca="false">ABS(345-B12)</f>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>240</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>1175.3</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>170.38</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <f aca="false">ABS(345-B13)</f>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>270</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>1188.8</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>175.56</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <f aca="false">ABS(345-B14)</f>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>300</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>1190.9</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="C14">
+        <v>1190.9000000000001</v>
+      </c>
+      <c r="D14">
         <v>176.79</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <f aca="false">ABS(345-B15)</f>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>330</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>1197.1</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="C15">
+        <v>1197.0999999999999</v>
+      </c>
+      <c r="D15">
         <v>178.45</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <f aca="false">ABS(345-B16)</f>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>345</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>1193.5</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>176.95</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <f aca="false">ABS(345-B17)</f>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>360</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>1191.2</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>176.74</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <f aca="false">ABS(345-B18)</f>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>390</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>1196.3</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>177.13</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <f aca="false">ABS(345-B19)</f>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>420</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>1187.5</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>174.17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <f aca="false">ABS(345-B20)</f>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>450</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>1178.7</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>170.77</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <f aca="false">ABS(345-B21)</f>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>480</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>1171.1</v>
-      </c>
-      <c r="D21" s="0" t="n">
+      <c r="C21">
+        <v>1171.0999999999999</v>
+      </c>
+      <c r="D21">
         <v>167.78</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <f aca="false">ABS(345-B22)</f>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>510</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>1144</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>162.66</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <f aca="false">ABS(345-B23)</f>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>540</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <v>1168.4</v>
-      </c>
-      <c r="D23" s="0" t="n">
+      <c r="C23">
+        <v>1168.4000000000001</v>
+      </c>
+      <c r="D23">
         <v>167.09</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <f aca="false">ABS(345-B24)</f>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>570</v>
       </c>
-      <c r="C24" s="0" t="n">
-        <v>1143.9</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>159.23</v>
+      <c r="C24">
+        <v>1143.9000000000001</v>
+      </c>
+      <c r="D24">
+        <v>159.22999999999999</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <f aca="false">ABS(345-B25)</f>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>600</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>1131.7</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>156.05</v>
+      <c r="D25">
+        <v>156.05000000000001</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <f aca="false">ABS(345-B26)</f>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>630</v>
       </c>
-      <c r="C26" s="0" t="n">
-        <v>1095.6</v>
-      </c>
-      <c r="D26" s="0" t="n">
+      <c r="C26">
+        <v>1095.5999999999999</v>
+      </c>
+      <c r="D26">
         <v>148.12</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <f aca="false">ABS(345-B27)</f>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>660</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <v>1095.4</v>
-      </c>
-      <c r="D27" s="0" t="n">
+      <c r="C27">
+        <v>1095.4000000000001</v>
+      </c>
+      <c r="D27">
         <v>149.15</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <f aca="false">ABS(345-B28)</f>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
         <v>345</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>690</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>1081.3</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>145.35</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
